--- a/MarineGEO_sie/image_input.xlsx
+++ b/MarineGEO_sie/image_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferhammock/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8866970-F0A0-364C-82BB-C88FCF8B2CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54703C5E-56FB-B448-BEDA-6B6CD6C3553D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="460" windowWidth="21600" windowHeight="16760" xr2:uid="{945FF215-BB60-41A1-BB5A-7FD7D5CB68A8}"/>
+    <workbookView xWindow="7200" yWindow="460" windowWidth="21600" windowHeight="16760" xr2:uid="{945FF215-BB60-41A1-BB5A-7FD7D5CB68A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Description</t>
   </si>
@@ -39,31 +39,13 @@
     <t>TL=457.2 mm. Photographed during Kaneohe Bay, Hawaii, Bioblitz expedition, 2017. Specimen voucher field number: KB17-032</t>
   </si>
   <si>
-    <t>Diodon hystrix USNM 442206 photograph dorsal view</t>
-  </si>
-  <si>
     <t>Parenti, Lynne R.</t>
   </si>
   <si>
-    <t>Diodon hystrix USNM 442206 photograph vental view</t>
+    <t>IRB</t>
   </si>
   <si>
-    <t>SL=210 mm. Photographed during Kaneohe Bay, Hawaii, Bioblitz expedition, 2017. Specimen voucher field number: KB17-308</t>
-  </si>
-  <si>
-    <t>Caranx melampygus USNM 442481 photograph lateral view</t>
-  </si>
-  <si>
-    <t>Pitassy, Diane E.</t>
-  </si>
-  <si>
-    <t>SL=56.9 mm. Photographed during Kaneohe Bay, Hawaii, Bioblitz expedition, 2017. Specimen voucher field number: KB17-110</t>
-  </si>
-  <si>
-    <t>Caranx ignobilis USNM 442283 photograph lateral view</t>
-  </si>
-  <si>
-    <t>IRB</t>
+    <t>Diodon hystrix USNM 442206 photograph lateral view</t>
   </si>
 </sst>
 </file>
@@ -81,6 +63,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,10 +92,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +415,7 @@
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,7 +426,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -461,54 +445,30 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>12307480</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>12307440</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>12307297</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
